--- a/biology/Origine et évolution du vivant/Passeriformes_(classification_phylogénétique)/Passeriformes_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Passeriformes_(classification_phylogénétique)/Passeriformes_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Passeriformes_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Passeriformes_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Passeriformes (Passereaux s.l.), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Passeriformes_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Passeriformes_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -796,7 +810,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Passeriformes_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Passeriformes_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -816,7 +830,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Classification de Sibley
+          <t>Classification de Sibley</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Classification de Sibley 1993
 ▲
 └─o ordre des Passeriformes
@@ -991,7 +1011,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Passeriformes_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Passeriformes_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1011,21 +1031,93 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sources bibliographiques de référence
-Per G.P. Ericson et al.  (2006) « Diversification of Neoaves : integration of molecular sequence data and fossils », Biol. Lett. doi:10.1098/rsbl.2006.0523
-Charles Gald Sibley et Jon Edward Ahlquist (1990) Phylogeny and classification of birds. A Study in Molecular Evolution, Yale University Press,  (ISBN 978-0300040852)
-Autres sources bibliographiques
-Sources internet
-Scott V. Edwards et John Harshman (2008) «  Passeriformes. perching birds, passerine birds. Version 24 June 2008 (under construction) » in The Tree of Life Web Project et pages subséquentes
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Per G.P. Ericson et al.  (2006) « Diversification of Neoaves : integration of molecular sequence data and fossils », Biol. Lett. doi:10.1098/rsbl.2006.0523
+Charles Gald Sibley et Jon Edward Ahlquist (1990) Phylogeny and classification of birds. A Study in Molecular Evolution, Yale University Press,  (ISBN 978-0300040852)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Passeriformes_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Passeriformes_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sources internet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Scott V. Edwards et John Harshman (2008) «  Passeriformes. perching birds, passerine birds. Version 24 June 2008 (under construction) » in The Tree of Life Web Project et pages subséquentes
 Alan P. Peterson, « Zoological nomenclature data: Birds of the World - current valid scientific avian names » sur le site Zoonomen. Zoological Nomenclature Resource
 Charles G. Sibley et Burt L. Monroe Jr. (1993) « Sibley's Sequence Based on DNA hybridization comparisons », sur le site Picchio verde
 Mikko's Phylogeny Archive
 The Taxonomicon
 Palaeos.org
 Micro*scope
-NCBI Taxonomy Browser
-Liens internes
-Passeriformes -- Taxinomie Sibley-Ahlquist
+NCBI Taxonomy Browser</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Passeriformes_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Passeriformes_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Passeriformes -- Taxinomie Sibley-Ahlquist
 Le vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
 Opisthokonta (classification phylogénétique)
